--- a/OUTROS/Dias-Ceu-Claro.xlsx
+++ b/OUTROS/Dias-Ceu-Claro.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cw\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizf\Documents\Sonda-import\OUTROS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336187D8-6949-4D35-AAA9-CDFB55DADF2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10450" windowHeight="2270"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,20 +404,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.90625" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -433,7 +434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -450,7 +451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -467,7 +468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -484,7 +485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -501,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -518,7 +519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -535,7 +536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>21</v>
       </c>
@@ -555,7 +556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
@@ -572,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>23</v>
       </c>
@@ -589,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
@@ -606,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -623,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -640,7 +641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -657,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -674,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -691,7 +692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -708,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -725,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -742,7 +743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -759,7 +760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -776,7 +777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -793,7 +794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -810,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -827,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -844,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -861,7 +862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -878,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -895,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -912,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -929,7 +930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -946,7 +947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13</v>
       </c>
@@ -963,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>16</v>
       </c>
@@ -980,7 +981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>22</v>
       </c>
@@ -997,7 +998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>23</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>25</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>27</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>28</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>10</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>11</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>16</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>19</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>21</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>26</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>27</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>4</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>5</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>27</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>23</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>4</v>
       </c>
@@ -1372,7 +1373,7 @@
       </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>22</v>
       </c>
@@ -1390,7 +1391,7 @@
       </c>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>23</v>
       </c>
@@ -1408,7 +1409,7 @@
       </c>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>24</v>
       </c>
@@ -1426,7 +1427,7 @@
       </c>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>27</v>
       </c>
@@ -1444,7 +1445,7 @@
       </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>11</v>
       </c>
@@ -1462,7 +1463,7 @@
       </c>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>14</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>15</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>20</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>9</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>16</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>17</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>18</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>19</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>23</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>24</v>
       </c>
@@ -1632,7 +1633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>25</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>26</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>27</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>28</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>29</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>30</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>1</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>3</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>4</v>
       </c>
@@ -1803,7 +1804,7 @@
       </c>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>5</v>
       </c>
@@ -1821,7 +1822,7 @@
       </c>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>8</v>
       </c>
@@ -1839,7 +1840,7 @@
       </c>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>11</v>
       </c>
@@ -1857,7 +1858,7 @@
       </c>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>12</v>
       </c>
@@ -1875,7 +1876,7 @@
       </c>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>16</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>17</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>27</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>28</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>4</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>5</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>6</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>7</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>8</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>9</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>11</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>12</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>26</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>12</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>20</v>
       </c>
